--- a/Data/Summary of experimental results.xlsx
+++ b/Data/Summary of experimental results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="11">
   <si>
     <t>Subject</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>BC</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
 </sst>
 </file>
@@ -96,7 +99,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,6 +109,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -137,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -164,6 +191,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2083,7 +2122,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2120,19 +2159,19 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2140,19 +2179,19 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="B3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2160,19 +2199,19 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="B4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2180,19 +2219,19 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="B5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="9"/>
@@ -2201,19 +2240,19 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="B6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2221,19 +2260,19 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="B7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2241,19 +2280,19 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2261,19 +2300,19 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2281,19 +2320,19 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="B10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2301,19 +2340,19 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="B11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2321,19 +2360,19 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="B12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2341,19 +2380,19 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="B13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2361,19 +2400,19 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="B14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2381,19 +2420,19 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="B15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2401,339 +2440,354 @@
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="8" t="s">
+      <c r="B32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2741,19 +2795,19 @@
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="8" t="s">
+      <c r="B33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2761,19 +2815,19 @@
       <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="8" t="s">
+      <c r="B34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2781,19 +2835,19 @@
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="8" t="s">
+      <c r="B35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2801,19 +2855,19 @@
       <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="8" t="s">
+      <c r="B36" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2879,5 +2933,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>